--- a/MainTop/20.05.25 имена/имена х2 _ печать 382_sorted.xlsx
+++ b/MainTop/20.05.25 имена/имена х2 _ печать 382_sorted.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\20.05.25 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CFE15-4389-4FBC-83CC-AEDC74C418A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA989366-D9E7-4009-9313-14F1176BFEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
   <si>
     <t>Артикул</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Num_Copies</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
   </si>
   <si>
     <t>Тип упорядочить</t>
@@ -665,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,16 +684,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -707,16 +702,14 @@
       <c r="D2" s="2">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>0.86</v>
@@ -727,16 +720,14 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -747,16 +738,14 @@
       <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>0.89</v>
@@ -767,16 +756,14 @@
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>0.82</v>
@@ -787,16 +774,14 @@
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>0.61</v>
@@ -807,16 +792,14 @@
       <c r="D7" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0.75</v>
@@ -827,16 +810,14 @@
       <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>0.64</v>
@@ -847,16 +828,14 @@
       <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>0.64</v>
@@ -867,16 +846,14 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>0.64</v>
@@ -887,16 +864,14 @@
       <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>0.61</v>
@@ -907,16 +882,14 @@
       <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>0.75</v>
@@ -927,16 +900,14 @@
       <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>0.79</v>
@@ -947,16 +918,14 @@
       <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>0.64</v>
@@ -967,16 +936,14 @@
       <c r="D15" s="2">
         <v>8</v>
       </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>0.64</v>
@@ -987,16 +954,14 @@
       <c r="D16" s="2">
         <v>8</v>
       </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>0.61</v>
@@ -1007,16 +972,14 @@
       <c r="D17" s="2">
         <v>8</v>
       </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>0.61</v>
@@ -1027,16 +990,14 @@
       <c r="D18" s="2">
         <v>8</v>
       </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>0.64</v>
@@ -1047,16 +1008,14 @@
       <c r="D19" s="2">
         <v>8</v>
       </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
         <v>0.56000000000000005</v>
@@ -1067,16 +1026,14 @@
       <c r="D20" s="2">
         <v>6</v>
       </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
         <v>0.46</v>
@@ -1087,16 +1044,14 @@
       <c r="D21" s="2">
         <v>6</v>
       </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
         <v>0.56999999999999995</v>
@@ -1107,16 +1062,14 @@
       <c r="D22" s="2">
         <v>6</v>
       </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
         <v>0.46</v>
@@ -1127,16 +1080,14 @@
       <c r="D23" s="2">
         <v>6</v>
       </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
         <v>0.5</v>
@@ -1147,16 +1098,14 @@
       <c r="D24" s="2">
         <v>6</v>
       </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
         <v>0.46</v>
@@ -1167,16 +1116,14 @@
       <c r="D25" s="2">
         <v>6</v>
       </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
         <v>0.56999999999999995</v>
@@ -1187,16 +1134,14 @@
       <c r="D26" s="2">
         <v>6</v>
       </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
         <v>0.46</v>
@@ -1207,16 +1152,14 @@
       <c r="D27" s="2">
         <v>6</v>
       </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
         <v>0.5</v>
@@ -1227,16 +1170,14 @@
       <c r="D28" s="2">
         <v>6</v>
       </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
         <v>0.5</v>
@@ -1247,16 +1188,14 @@
       <c r="D29" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
         <v>0.5</v>
@@ -1267,16 +1206,14 @@
       <c r="D30" s="2">
         <v>6</v>
       </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
         <v>0.43</v>
@@ -1287,16 +1224,14 @@
       <c r="D31" s="2">
         <v>6</v>
       </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
         <v>0.46</v>
@@ -1307,16 +1242,14 @@
       <c r="D32" s="2">
         <v>6</v>
       </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
         <v>0.25</v>
@@ -1327,16 +1260,14 @@
       <c r="D33" s="2">
         <v>4</v>
       </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>0.39</v>
@@ -1347,16 +1278,14 @@
       <c r="D34" s="2">
         <v>4</v>
       </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
         <v>0.21</v>
@@ -1367,16 +1296,14 @@
       <c r="D35" s="2">
         <v>4</v>
       </c>
-      <c r="E35" s="2">
-        <v>5</v>
-      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
         <v>0.25</v>
@@ -1387,16 +1314,14 @@
       <c r="D36" s="2">
         <v>4</v>
       </c>
-      <c r="E36" s="2">
-        <v>5</v>
-      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
         <v>0.39</v>
@@ -1407,16 +1332,14 @@
       <c r="D37" s="2">
         <v>4</v>
       </c>
-      <c r="E37" s="2">
-        <v>5</v>
-      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
         <v>0.36</v>
@@ -1427,16 +1350,14 @@
       <c r="D38" s="2">
         <v>4</v>
       </c>
-      <c r="E38" s="2">
-        <v>5</v>
-      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
         <v>0.36</v>
@@ -1447,16 +1368,14 @@
       <c r="D39" s="2">
         <v>4</v>
       </c>
-      <c r="E39" s="2">
-        <v>5</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
         <v>0.25</v>
@@ -1467,16 +1386,14 @@
       <c r="D40" s="2">
         <v>4</v>
       </c>
-      <c r="E40" s="2">
-        <v>5</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
         <v>0.32</v>
@@ -1487,16 +1404,14 @@
       <c r="D41" s="2">
         <v>4</v>
       </c>
-      <c r="E41" s="2">
-        <v>5</v>
-      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
         <v>0.36</v>
@@ -1507,16 +1422,14 @@
       <c r="D42" s="2">
         <v>4</v>
       </c>
-      <c r="E42" s="2">
-        <v>5</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2">
         <v>0.25</v>
@@ -1527,16 +1440,14 @@
       <c r="D43" s="2">
         <v>4</v>
       </c>
-      <c r="E43" s="2">
-        <v>5</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
         <v>0.28999999999999998</v>
@@ -1547,16 +1458,14 @@
       <c r="D44" s="2">
         <v>4</v>
       </c>
-      <c r="E44" s="2">
-        <v>5</v>
-      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
         <v>0.39</v>
@@ -1567,16 +1476,14 @@
       <c r="D45" s="2">
         <v>4</v>
       </c>
-      <c r="E45" s="2">
-        <v>5</v>
-      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
         <v>0.25</v>
@@ -1587,16 +1494,14 @@
       <c r="D46" s="2">
         <v>4</v>
       </c>
-      <c r="E46" s="2">
-        <v>5</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
         <v>0.32</v>
@@ -1607,16 +1512,14 @@
       <c r="D47" s="2">
         <v>4</v>
       </c>
-      <c r="E47" s="2">
-        <v>5</v>
-      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
         <v>0.36</v>
@@ -1627,16 +1530,14 @@
       <c r="D48" s="2">
         <v>4</v>
       </c>
-      <c r="E48" s="2">
-        <v>5</v>
-      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
         <v>0.32</v>
@@ -1647,16 +1548,14 @@
       <c r="D49" s="2">
         <v>4</v>
       </c>
-      <c r="E49" s="2">
-        <v>5</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2">
         <v>0.32</v>
@@ -1667,16 +1566,14 @@
       <c r="D50" s="2">
         <v>4</v>
       </c>
-      <c r="E50" s="2">
-        <v>5</v>
-      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
         <v>0.25</v>
@@ -1687,16 +1584,14 @@
       <c r="D51" s="2">
         <v>4</v>
       </c>
-      <c r="E51" s="2">
-        <v>5</v>
-      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
         <v>0.04</v>
@@ -1707,16 +1602,14 @@
       <c r="D52" s="2">
         <v>2</v>
       </c>
-      <c r="E52" s="2">
-        <v>5</v>
-      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
         <v>0.14000000000000001</v>
@@ -1727,16 +1620,14 @@
       <c r="D53" s="2">
         <v>2</v>
       </c>
-      <c r="E53" s="2">
-        <v>5</v>
-      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1747,16 +1638,14 @@
       <c r="D54" s="2">
         <v>2</v>
       </c>
-      <c r="E54" s="2">
-        <v>5</v>
-      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
         <v>0.18</v>
@@ -1767,16 +1656,14 @@
       <c r="D55" s="2">
         <v>2</v>
       </c>
-      <c r="E55" s="2">
-        <v>5</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1787,16 +1674,14 @@
       <c r="D56" s="2">
         <v>2</v>
       </c>
-      <c r="E56" s="2">
-        <v>5</v>
-      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
         <v>0.14000000000000001</v>
@@ -1807,16 +1692,14 @@
       <c r="D57" s="2">
         <v>2</v>
       </c>
-      <c r="E57" s="2">
-        <v>5</v>
-      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2">
         <v>0.11</v>
@@ -1827,16 +1710,14 @@
       <c r="D58" s="2">
         <v>2</v>
       </c>
-      <c r="E58" s="2">
-        <v>5</v>
-      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1847,16 +1728,14 @@
       <c r="D59" s="2">
         <v>2</v>
       </c>
-      <c r="E59" s="2">
-        <v>5</v>
-      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1867,16 +1746,14 @@
       <c r="D60" s="2">
         <v>2</v>
       </c>
-      <c r="E60" s="2">
-        <v>5</v>
-      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="2">
         <v>0.18</v>
@@ -1887,16 +1764,14 @@
       <c r="D61" s="2">
         <v>2</v>
       </c>
-      <c r="E61" s="2">
-        <v>5</v>
-      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1907,16 +1782,14 @@
       <c r="D62" s="2">
         <v>2</v>
       </c>
-      <c r="E62" s="2">
-        <v>5</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1927,16 +1800,14 @@
       <c r="D63" s="2">
         <v>2</v>
       </c>
-      <c r="E63" s="2">
-        <v>5</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
         <v>0.04</v>
@@ -1947,16 +1818,14 @@
       <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64" s="2">
-        <v>5</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1967,16 +1836,14 @@
       <c r="D65" s="2">
         <v>2</v>
       </c>
-      <c r="E65" s="2">
-        <v>5</v>
-      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
         <v>0.04</v>
@@ -1987,16 +1854,14 @@
       <c r="D66" s="2">
         <v>2</v>
       </c>
-      <c r="E66" s="2">
-        <v>5</v>
-      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
         <v>0.11</v>
@@ -2007,16 +1872,14 @@
       <c r="D67" s="2">
         <v>2</v>
       </c>
-      <c r="E67" s="2">
-        <v>5</v>
-      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3">
         <v>0.04</v>
@@ -2027,16 +1890,14 @@
       <c r="D68" s="3">
         <v>2</v>
       </c>
-      <c r="E68" s="3">
-        <v>5</v>
-      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3">
         <v>0.11</v>
@@ -2047,16 +1908,14 @@
       <c r="D69" s="3">
         <v>2</v>
       </c>
-      <c r="E69" s="3">
-        <v>5</v>
-      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="3">
         <v>0.14000000000000001</v>
@@ -2067,16 +1926,14 @@
       <c r="D70" s="3">
         <v>2</v>
       </c>
-      <c r="E70" s="3">
-        <v>5</v>
-      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="3">
         <v>0.11</v>
@@ -2087,16 +1944,14 @@
       <c r="D71" s="3">
         <v>2</v>
       </c>
-      <c r="E71" s="3">
-        <v>5</v>
-      </c>
+      <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3">
         <v>7.0000000000000007E-2</v>
@@ -2107,16 +1962,14 @@
       <c r="D72" s="3">
         <v>2</v>
       </c>
-      <c r="E72" s="3">
-        <v>5</v>
-      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="3">
         <v>7.0000000000000007E-2</v>
@@ -2127,16 +1980,14 @@
       <c r="D73" s="3">
         <v>2</v>
       </c>
-      <c r="E73" s="3">
-        <v>5</v>
-      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3">
         <v>0.18</v>
@@ -2147,16 +1998,14 @@
       <c r="D74" s="3">
         <v>2</v>
       </c>
-      <c r="E74" s="3">
-        <v>5</v>
-      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="3">
         <v>0.04</v>
@@ -2167,16 +2016,14 @@
       <c r="D75" s="3">
         <v>2</v>
       </c>
-      <c r="E75" s="3">
-        <v>5</v>
-      </c>
+      <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="3">
         <v>0.18</v>
@@ -2187,16 +2034,14 @@
       <c r="D76" s="3">
         <v>2</v>
       </c>
-      <c r="E76" s="3">
-        <v>5</v>
-      </c>
+      <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="3">
         <v>0.11</v>
@@ -2207,16 +2052,14 @@
       <c r="D77" s="3">
         <v>2</v>
       </c>
-      <c r="E77" s="3">
-        <v>5</v>
-      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="3">
         <v>7.0000000000000007E-2</v>
@@ -2227,16 +2070,14 @@
       <c r="D78" s="3">
         <v>2</v>
       </c>
-      <c r="E78" s="3">
-        <v>5</v>
-      </c>
+      <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="3">
         <v>0.18</v>
@@ -2247,16 +2088,14 @@
       <c r="D79" s="3">
         <v>2</v>
       </c>
-      <c r="E79" s="3">
-        <v>5</v>
-      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="3">
         <v>0.04</v>
@@ -2267,16 +2106,14 @@
       <c r="D80" s="3">
         <v>2</v>
       </c>
-      <c r="E80" s="3">
-        <v>5</v>
-      </c>
+      <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3">
         <v>0.18</v>
@@ -2287,16 +2124,14 @@
       <c r="D81" s="3">
         <v>2</v>
       </c>
-      <c r="E81" s="3">
-        <v>5</v>
-      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="3">
         <v>0.18</v>
@@ -2307,16 +2142,14 @@
       <c r="D82" s="3">
         <v>2</v>
       </c>
-      <c r="E82" s="3">
-        <v>5</v>
-      </c>
+      <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="3">
         <v>0.18</v>
@@ -2327,11 +2160,9 @@
       <c r="D83" s="3">
         <v>2</v>
       </c>
-      <c r="E83" s="3">
-        <v>5</v>
-      </c>
+      <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
